--- a/jike.xlsx
+++ b/jike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeField\Python\RankSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CA01CD-BD3B-45DA-A89B-3811A1CCCE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD97DA2D-DE0F-419F-9BBE-DF1994A0E9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t>姓名</t>
   </si>
@@ -33,10 +33,781 @@
     <t>学号</t>
   </si>
   <si>
+    <t>尉高耀</t>
+  </si>
+  <si>
+    <t>08192738</t>
+  </si>
+  <si>
+    <t>李斐然</t>
+  </si>
+  <si>
+    <t>07192378</t>
+  </si>
+  <si>
+    <t>王唯一</t>
+  </si>
+  <si>
+    <t>08192842</t>
+  </si>
+  <si>
     <t>胡钧耀</t>
   </si>
   <si>
     <t>06192081</t>
+  </si>
+  <si>
+    <t>赵琳</t>
+  </si>
+  <si>
+    <t>08192778</t>
+  </si>
+  <si>
+    <t>王杰永</t>
+  </si>
+  <si>
+    <t>03190886</t>
+  </si>
+  <si>
+    <t>朱国愚</t>
+  </si>
+  <si>
+    <t>08192867</t>
+  </si>
+  <si>
+    <t>步艺</t>
+  </si>
+  <si>
+    <t>08192753</t>
+  </si>
+  <si>
+    <t>李博宇</t>
+  </si>
+  <si>
+    <t>08192805</t>
+  </si>
+  <si>
+    <t>王天乐</t>
+  </si>
+  <si>
+    <t>张晨春</t>
+  </si>
+  <si>
+    <t>08192798</t>
+  </si>
+  <si>
+    <t>任威鹏</t>
+  </si>
+  <si>
+    <t>08192977</t>
+  </si>
+  <si>
+    <t>王昭</t>
+  </si>
+  <si>
+    <t>08193076</t>
+  </si>
+  <si>
+    <t>赵贤贤</t>
+  </si>
+  <si>
+    <t>徐胜北</t>
+  </si>
+  <si>
+    <t>杨浩宇</t>
+  </si>
+  <si>
+    <t>08193071</t>
+  </si>
+  <si>
+    <t>连歌歌</t>
+  </si>
+  <si>
+    <t>08193026</t>
+  </si>
+  <si>
+    <t>李明洙</t>
+  </si>
+  <si>
+    <t>08192993</t>
+  </si>
+  <si>
+    <t>李中天</t>
+  </si>
+  <si>
+    <t>08192735</t>
+  </si>
+  <si>
+    <t>袁怡琛</t>
+  </si>
+  <si>
+    <t>08192773</t>
+  </si>
+  <si>
+    <t>潘恒峰</t>
+  </si>
+  <si>
+    <t>06192225</t>
+  </si>
+  <si>
+    <t>沈铭</t>
+  </si>
+  <si>
+    <t>08192850</t>
+  </si>
+  <si>
+    <t>赵梦柯</t>
+  </si>
+  <si>
+    <t>08192752</t>
+  </si>
+  <si>
+    <t>徐帅</t>
+  </si>
+  <si>
+    <t>08192864</t>
+  </si>
+  <si>
+    <t>李敏</t>
+  </si>
+  <si>
+    <t>08192785</t>
+  </si>
+  <si>
+    <t>刘君龙</t>
+  </si>
+  <si>
+    <t>08192896</t>
+  </si>
+  <si>
+    <t>郝晓宇</t>
+  </si>
+  <si>
+    <t>06192161</t>
+  </si>
+  <si>
+    <t>周群涛</t>
+  </si>
+  <si>
+    <t>08193010</t>
+  </si>
+  <si>
+    <t>郭炎亮</t>
+  </si>
+  <si>
+    <t>08192741</t>
+  </si>
+  <si>
+    <t>林伟涵</t>
+  </si>
+  <si>
+    <t>08192819</t>
+  </si>
+  <si>
+    <t>钱晓涛</t>
+  </si>
+  <si>
+    <t>08192962</t>
+  </si>
+  <si>
+    <t>张霆旭</t>
+  </si>
+  <si>
+    <t>08192758</t>
+  </si>
+  <si>
+    <t>李悦欣</t>
+  </si>
+  <si>
+    <t>08192961</t>
+  </si>
+  <si>
+    <t>李家轩</t>
+  </si>
+  <si>
+    <t>08192837</t>
+  </si>
+  <si>
+    <t>王梦宇</t>
+  </si>
+  <si>
+    <t>08192811</t>
+  </si>
+  <si>
+    <t>范锦鸽</t>
+  </si>
+  <si>
+    <t>08192843</t>
+  </si>
+  <si>
+    <t>孟想</t>
+  </si>
+  <si>
+    <t>08192783</t>
+  </si>
+  <si>
+    <t>高扬</t>
+  </si>
+  <si>
+    <t>08192740</t>
+  </si>
+  <si>
+    <t>王斐钰</t>
+  </si>
+  <si>
+    <t>08192782</t>
+  </si>
+  <si>
+    <t>王顶山</t>
+  </si>
+  <si>
+    <t>08192860</t>
+  </si>
+  <si>
+    <t>何冰</t>
+  </si>
+  <si>
+    <t>08192902</t>
+  </si>
+  <si>
+    <t>蒋乾坤</t>
+  </si>
+  <si>
+    <t>08193099</t>
+  </si>
+  <si>
+    <t>马凯</t>
+  </si>
+  <si>
+    <t>08193101</t>
+  </si>
+  <si>
+    <t>党倩雯</t>
+  </si>
+  <si>
+    <t>08192845</t>
+  </si>
+  <si>
+    <t>俞范文</t>
+  </si>
+  <si>
+    <t>08192799</t>
+  </si>
+  <si>
+    <t>李坤睿</t>
+  </si>
+  <si>
+    <t>08192813</t>
+  </si>
+  <si>
+    <t>孟祥文</t>
+  </si>
+  <si>
+    <t>08193077</t>
+  </si>
+  <si>
+    <t>黄文辉</t>
+  </si>
+  <si>
+    <t>08193060</t>
+  </si>
+  <si>
+    <t>李渊</t>
+  </si>
+  <si>
+    <t>09193199</t>
+  </si>
+  <si>
+    <t>杭文涛</t>
+  </si>
+  <si>
+    <t>08192756</t>
+  </si>
+  <si>
+    <t>孙维宇</t>
+  </si>
+  <si>
+    <t>08192795</t>
+  </si>
+  <si>
+    <t>王可</t>
+  </si>
+  <si>
+    <t>08192751</t>
+  </si>
+  <si>
+    <t>刘越</t>
+  </si>
+  <si>
+    <t>04191526</t>
+  </si>
+  <si>
+    <t>黄凯</t>
+  </si>
+  <si>
+    <t>06192103</t>
+  </si>
+  <si>
+    <t>刘权印</t>
+  </si>
+  <si>
+    <t>08192957</t>
+  </si>
+  <si>
+    <t>史雯允</t>
+  </si>
+  <si>
+    <t>08192780</t>
+  </si>
+  <si>
+    <t>潘逸冬</t>
+  </si>
+  <si>
+    <t>08192764</t>
+  </si>
+  <si>
+    <t>营鹏</t>
+  </si>
+  <si>
+    <t>08192889</t>
+  </si>
+  <si>
+    <t>司宇轩</t>
+  </si>
+  <si>
+    <t>08192874</t>
+  </si>
+  <si>
+    <t>蔡雨桐</t>
+  </si>
+  <si>
+    <t>08192875</t>
+  </si>
+  <si>
+    <t>廖奕嘉</t>
+  </si>
+  <si>
+    <t>08192949</t>
+  </si>
+  <si>
+    <t>李芳晨</t>
+  </si>
+  <si>
+    <t>08192801</t>
+  </si>
+  <si>
+    <t>梅皓威</t>
+  </si>
+  <si>
+    <t>08192796</t>
+  </si>
+  <si>
+    <t>付明建</t>
+  </si>
+  <si>
+    <t>06192167</t>
+  </si>
+  <si>
+    <t>董莹龙</t>
+  </si>
+  <si>
+    <t>08193064</t>
+  </si>
+  <si>
+    <t>任晞源</t>
+  </si>
+  <si>
+    <t>04191463</t>
+  </si>
+  <si>
+    <t>彭辉鸿</t>
+  </si>
+  <si>
+    <t>08192777</t>
+  </si>
+  <si>
+    <t>石绍华</t>
+  </si>
+  <si>
+    <t>08193079</t>
+  </si>
+  <si>
+    <t>段鸿翔</t>
+  </si>
+  <si>
+    <t>08192853</t>
+  </si>
+  <si>
+    <t>李星仪</t>
+  </si>
+  <si>
+    <t>08193052</t>
+  </si>
+  <si>
+    <t>徐乾</t>
+  </si>
+  <si>
+    <t>08192895</t>
+  </si>
+  <si>
+    <t>贺惠龙</t>
+  </si>
+  <si>
+    <t>08192755</t>
+  </si>
+  <si>
+    <t>李哲</t>
+  </si>
+  <si>
+    <t>08192869</t>
+  </si>
+  <si>
+    <t>李祥旭</t>
+  </si>
+  <si>
+    <t>02190319</t>
+  </si>
+  <si>
+    <t>侯懿圃</t>
+  </si>
+  <si>
+    <t>08192803</t>
+  </si>
+  <si>
+    <t>谭茹月</t>
+  </si>
+  <si>
+    <t>08192810</t>
+  </si>
+  <si>
+    <t>王逸鸣</t>
+  </si>
+  <si>
+    <t>08192942</t>
+  </si>
+  <si>
+    <t>王梓豪</t>
+  </si>
+  <si>
+    <t>08192918</t>
+  </si>
+  <si>
+    <t>赵辰烜</t>
+  </si>
+  <si>
+    <t>08193057</t>
+  </si>
+  <si>
+    <t>赵雪路</t>
+  </si>
+  <si>
+    <t>08192996</t>
+  </si>
+  <si>
+    <t>熊英豪</t>
+  </si>
+  <si>
+    <t>09193289</t>
+  </si>
+  <si>
+    <t>李春奇</t>
+  </si>
+  <si>
+    <t>08192969</t>
+  </si>
+  <si>
+    <t>樊锦龙</t>
+  </si>
+  <si>
+    <t>08192912</t>
+  </si>
+  <si>
+    <t>林仔言</t>
+  </si>
+  <si>
+    <t>08192840</t>
+  </si>
+  <si>
+    <t>黄广昊</t>
+  </si>
+  <si>
+    <t>08192818</t>
+  </si>
+  <si>
+    <t>高永亮</t>
+  </si>
+  <si>
+    <t>08192770</t>
+  </si>
+  <si>
+    <t>侯琛</t>
+  </si>
+  <si>
+    <t>08193038</t>
+  </si>
+  <si>
+    <t>董俊</t>
+  </si>
+  <si>
+    <t>08192737</t>
+  </si>
+  <si>
+    <t>魏晓蕾</t>
+  </si>
+  <si>
+    <t>07192385</t>
+  </si>
+  <si>
+    <t>李铮</t>
+  </si>
+  <si>
+    <t>08192800</t>
+  </si>
+  <si>
+    <t>闵玉寒</t>
+  </si>
+  <si>
+    <t>08192897</t>
+  </si>
+  <si>
+    <t>何志文</t>
+  </si>
+  <si>
+    <t>08192880</t>
+  </si>
+  <si>
+    <t>秦朗</t>
+  </si>
+  <si>
+    <t>08193058</t>
+  </si>
+  <si>
+    <t>楚天奇</t>
+  </si>
+  <si>
+    <t>08192797</t>
+  </si>
+  <si>
+    <t>武成豫</t>
+  </si>
+  <si>
+    <t>08192953</t>
+  </si>
+  <si>
+    <t>刘冠杞</t>
+  </si>
+  <si>
+    <t>08192774</t>
+  </si>
+  <si>
+    <t>陈一鸣</t>
+  </si>
+  <si>
+    <t>08192794</t>
+  </si>
+  <si>
+    <t>赵文豪</t>
+  </si>
+  <si>
+    <t>08192745</t>
+  </si>
+  <si>
+    <t>范道奇</t>
+  </si>
+  <si>
+    <t>08192923</t>
+  </si>
+  <si>
+    <t>吴承谦</t>
+  </si>
+  <si>
+    <t>08192886</t>
+  </si>
+  <si>
+    <t>刘兴宇</t>
+  </si>
+  <si>
+    <t>08193069</t>
+  </si>
+  <si>
+    <t>王贺喜</t>
+  </si>
+  <si>
+    <t>08193042</t>
+  </si>
+  <si>
+    <t>覃航</t>
+  </si>
+  <si>
+    <t>李春阳</t>
+  </si>
+  <si>
+    <t>08193073</t>
+  </si>
+  <si>
+    <t>王轲民</t>
+  </si>
+  <si>
+    <t>08192723</t>
+  </si>
+  <si>
+    <t>李国放</t>
+  </si>
+  <si>
+    <t>08193045</t>
+  </si>
+  <si>
+    <t>章江龙</t>
+  </si>
+  <si>
+    <t>08193067</t>
+  </si>
+  <si>
+    <t>陈佳奕</t>
+  </si>
+  <si>
+    <t>08192909</t>
+  </si>
+  <si>
+    <t>李贺鹏</t>
+  </si>
+  <si>
+    <t>08192954</t>
+  </si>
+  <si>
+    <t>李志华</t>
+  </si>
+  <si>
+    <t>08192907</t>
+  </si>
+  <si>
+    <t>陈劲文</t>
+  </si>
+  <si>
+    <t>08192849</t>
+  </si>
+  <si>
+    <t>王天宇</t>
+  </si>
+  <si>
+    <t>08193075</t>
+  </si>
+  <si>
+    <t>金文康</t>
+  </si>
+  <si>
+    <t>08192769</t>
+  </si>
+  <si>
+    <t>张中骏</t>
+  </si>
+  <si>
+    <t>08192941</t>
+  </si>
+  <si>
+    <t>杨铎</t>
+  </si>
+  <si>
+    <t>何宙伦</t>
+  </si>
+  <si>
+    <t>08192787</t>
+  </si>
+  <si>
+    <t>颜家祺</t>
+  </si>
+  <si>
+    <t>08192836</t>
+  </si>
+  <si>
+    <t>李中流</t>
+  </si>
+  <si>
+    <t>08193016</t>
+  </si>
+  <si>
+    <t>陈心怡</t>
+  </si>
+  <si>
+    <t>08192716</t>
+  </si>
+  <si>
+    <t>王晓琦</t>
+  </si>
+  <si>
+    <t>08193027</t>
+  </si>
+  <si>
+    <t>王晓明</t>
+  </si>
+  <si>
+    <t>08192726</t>
+  </si>
+  <si>
+    <t>赵鹏</t>
+  </si>
+  <si>
+    <t>08193048</t>
+  </si>
+  <si>
+    <t>张立</t>
+  </si>
+  <si>
+    <t>08192868</t>
+  </si>
+  <si>
+    <t>刘思淼</t>
+  </si>
+  <si>
+    <t>08192995</t>
+  </si>
+  <si>
+    <t>杨宝梁</t>
+  </si>
+  <si>
+    <t>08192887</t>
+  </si>
+  <si>
+    <t>张晋</t>
+  </si>
+  <si>
+    <t>08193049</t>
+  </si>
+  <si>
+    <t>薛政宇</t>
+  </si>
+  <si>
+    <t>08192917</t>
+  </si>
+  <si>
+    <t>陈霖杰</t>
+  </si>
+  <si>
+    <t>08192851</t>
+  </si>
+  <si>
+    <t>李翔</t>
+  </si>
+  <si>
+    <t>08192914</t>
+  </si>
+  <si>
+    <t>商剑英</t>
+  </si>
+  <si>
+    <t>08192979</t>
+  </si>
+  <si>
+    <t>熊炜</t>
+  </si>
+  <si>
+    <t>08192971</t>
+  </si>
+  <si>
+    <t>张云皓</t>
+  </si>
+  <si>
+    <t>08193088</t>
   </si>
 </sst>
 </file>
@@ -413,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -437,6 +1208,1054 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10193709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <v>17195184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>17195018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="3">
+        <v>17195340</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="3">
+        <v>20195568</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
